--- a/biology/Médecine/Samuel_Alexander_Kinnier_Wilson/Samuel_Alexander_Kinnier_Wilson.xlsx
+++ b/biology/Médecine/Samuel_Alexander_Kinnier_Wilson/Samuel_Alexander_Kinnier_Wilson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Alexander Kinnier Wilson né le 6 décembre 1878 à Cedarville (New Jersey, USA) et mort le 12 mai 1937 à Londres est un médecin neurologue britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, James Kinnier Wilson, était un pasteur presbytérien d'origine irlandaise qui avait émigré avec sa famille aux États-Unis. Il mourut un an après la naissance de Samuel et la famille revint alors s'établir en Grande Bretagne, à Édimbourg.
 Kinnier Wilson  fait ses études au George Watson's College d'Édimbourg où il montre de grandes aptitudes pour les langues, gagnant plusieurs prix de grec et de latin. Il devient médecin en 1902 à l'Université d'Édinbourg, puis occupe un poste à l'Infirmerie Royale d'Édinbourg avec le pathologiste Sir Byrom Bramwell. Il décide rapidement de se tourner vers la neurologie.
